--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Matthew\Desktop\IRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A621ED8-7BE3-4DDF-816D-508CBC4A4A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03EE501-BE11-4E68-B5D6-280C8D37FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D9275A5-F5F9-4E83-973D-87F4F4AB6FEE}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>Price Solutions</t>
   </si>
   <si>
-    <t>Amazon</t>
+    <t>1mg Private Limited</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
